--- a/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Trimestral.xlsx
+++ b/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Trimestral.xlsx
@@ -2962,6 +2962,9 @@
       <c r="F99">
         <v>156.8</v>
       </c>
+      <c r="G99">
+        <v>321.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Trimestral.xlsx
+++ b/12/2/Índice de Incertidumbre de Política Económica 1997 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Serie</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2966,6 +2969,23 @@
         <v>321.3</v>
       </c>
     </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>485.6</v>
+      </c>
+      <c r="D100">
+        <v>172.4</v>
+      </c>
+      <c r="E100">
+        <v>201.2</v>
+      </c>
+      <c r="F100">
+        <v>178.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
